--- a/3rd Year CSE, IT,CSM Timetables-1.xlsx
+++ b/3rd Year CSE, IT,CSM Timetables-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CSE 3A" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="76">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -121,12 +121,21 @@
     <t xml:space="preserve">Tuesday</t>
   </si>
   <si>
+    <t xml:space="preserve">ML(B1) CD(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wednesday</t>
   </si>
   <si>
+    <t xml:space="preserve">CD(B1) MAD(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thursday</t>
   </si>
   <si>
+    <t xml:space="preserve">MAD(B1) ML(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Friday</t>
   </si>
   <si>
@@ -145,34 +154,133 @@
     <t xml:space="preserve">Mr. P. Venu Madhav</t>
   </si>
   <si>
+    <t xml:space="preserve">ML Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. A. Anitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. TV Ramanamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. S. Mahesh</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLASS TIME TABLE - 2022-2023  II Semester</t>
   </si>
   <si>
     <t xml:space="preserve">CSE-III B</t>
   </si>
   <si>
+    <t xml:space="preserve">CD(B1) ML(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML(B1) MAD(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD(B1) CD (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. M. Vineela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. S. Anitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shilpa</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE-III C</t>
   </si>
   <si>
+    <t xml:space="preserve">MAD(B1) CD(B2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. M Jagan</t>
   </si>
   <si>
     <t xml:space="preserve">CSE-III D</t>
   </si>
   <si>
+    <t xml:space="preserve">MAD LAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD LAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">EVS</t>
   </si>
   <si>
+    <t xml:space="preserve">ML LAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. M. Jagan</t>
   </si>
   <si>
     <t xml:space="preserve">Ms. Nalini</t>
   </si>
   <si>
+    <t xml:space="preserve">Mr. AR Sofi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. V. Shilpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sameena</t>
+  </si>
+  <si>
     <t xml:space="preserve">IT - III</t>
   </si>
   <si>
+    <t xml:space="preserve">STM LAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCC LAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. M. Saravanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCC Lab</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSM-III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD(B1) DEVOPS(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP(B1)  MAD(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVOPS(B1) NLP (B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Masood Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DevOps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Gowthami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD</t>
   </si>
 </sst>
 </file>
@@ -182,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -259,6 +367,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -363,7 +476,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -448,35 +561,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,16 +601,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -575,8 +696,8 @@
   </sheetPr>
   <dimension ref="B1:N231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -777,14 +898,16 @@
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
@@ -796,14 +919,16 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
@@ -815,14 +940,16 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13"/>
@@ -839,7 +966,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -905,14 +1032,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -933,7 +1060,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -949,9 +1076,13 @@
       <c r="F21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -966,9 +1097,13 @@
       <c r="F22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -983,12 +1118,16 @@
       <c r="F23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
@@ -1119,65 +1258,65 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24" t="s">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="21" t="s">
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="26"/>
+      <c r="N32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1375,7 +1514,7 @@
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="50">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -1385,8 +1524,11 @@
     <mergeCell ref="I10:I15"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K11:M11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G19:H19"/>
@@ -1441,8 +1583,8 @@
   </sheetPr>
   <dimension ref="B1:N226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1499,7 +1641,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1516,7 +1658,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1622,7 +1764,9 @@
         <v>19</v>
       </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="8"/>
@@ -1650,10 +1794,12 @@
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -1669,7 +1815,7 @@
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
@@ -1688,10 +1834,12 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -1705,7 +1853,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -1771,14 +1919,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -1799,7 +1947,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -1815,9 +1963,13 @@
       <c r="F21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -1832,9 +1984,13 @@
       <c r="F22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -1849,9 +2005,13 @@
       <c r="F23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -2180,7 +2340,7 @@
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -2188,11 +2348,14 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="I10:I15"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:L19"/>
@@ -2236,8 +2399,8 @@
   </sheetPr>
   <dimension ref="B1:N225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2294,7 +2457,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2311,7 +2474,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2404,7 +2567,9 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2427,7 +2592,9 @@
         <v>21</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2443,7 +2610,7 @@
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
@@ -2462,7 +2629,7 @@
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
@@ -2483,7 +2650,7 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13"/>
@@ -2493,14 +2660,16 @@
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -2566,14 +2735,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -2594,7 +2763,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -2610,9 +2779,13 @@
       <c r="F21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -2627,9 +2800,13 @@
       <c r="F22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -2644,9 +2821,13 @@
       <c r="F23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -2974,19 +3155,22 @@
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="B6:N6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="I10:I15"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="K14:M14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:L19"/>
@@ -3030,8 +3214,8 @@
   </sheetPr>
   <dimension ref="B1:N232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3088,7 +3272,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3105,7 +3289,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3209,7 +3393,9 @@
         <v>19</v>
       </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="8"/>
@@ -3219,11 +3405,13 @@
         <v>21</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>18</v>
@@ -3239,7 +3427,7 @@
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
@@ -3250,17 +3438,19 @@
         <v>18</v>
       </c>
       <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
@@ -3279,7 +3469,7 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13"/>
@@ -3288,7 +3478,7 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
@@ -3300,7 +3490,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -3366,14 +3556,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -3394,7 +3584,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -3411,11 +3601,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -3431,9 +3621,13 @@
       <c r="F22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -3448,9 +3642,13 @@
       <c r="F23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -3465,9 +3663,13 @@
       <c r="F24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -3591,69 +3793,69 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="21"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="21" t="s">
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="26"/>
+      <c r="N35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3851,7 +4053,7 @@
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="50">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -3859,9 +4061,12 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="I10:I15"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -3917,8 +4122,8 @@
   </sheetPr>
   <dimension ref="B1:N232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3977,7 +4182,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3994,7 +4199,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4126,7 +4331,7 @@
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
@@ -4138,19 +4343,23 @@
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
         <v>18</v>
@@ -4166,7 +4375,7 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13"/>
@@ -4183,7 +4392,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -4249,14 +4458,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -4277,7 +4486,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -4293,9 +4502,13 @@
       <c r="F21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -4310,9 +4523,13 @@
       <c r="F22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -4470,69 +4687,69 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="21"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="21" t="s">
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="26"/>
+      <c r="N35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4730,7 +4947,7 @@
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="50">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -4741,7 +4958,10 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G19:H19"/>
@@ -4796,8 +5016,8 @@
   </sheetPr>
   <dimension ref="B1:N230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4854,7 +5074,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4871,7 +5091,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4989,21 +5209,23 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
@@ -5020,16 +5242,18 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -5038,21 +5262,23 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
@@ -5066,7 +5292,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -5132,14 +5358,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -5155,9 +5381,13 @@
       <c r="F20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -5172,9 +5402,13 @@
       <c r="F21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -5189,9 +5423,13 @@
       <c r="F22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -5342,48 +5580,48 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="21"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5581,7 +5819,7 @@
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="48">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -5590,9 +5828,12 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="I10:I15"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K11:M11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G19:H19"/>

--- a/3rd Year CSE, IT,CSM Timetables-1.xlsx
+++ b/3rd Year CSE, IT,CSM Timetables-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CSE 3A" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="88">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -109,6 +109,12 @@
     <t xml:space="preserve">Monday</t>
   </si>
   <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYS</t>
+  </si>
+  <si>
     <t xml:space="preserve">IOT</t>
   </si>
   <si>
@@ -118,9 +124,18 @@
     <t xml:space="preserve">DPPM</t>
   </si>
   <si>
+    <t xml:space="preserve">DAA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tuesday</t>
   </si>
   <si>
+    <t xml:space="preserve">CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD</t>
+  </si>
+  <si>
     <t xml:space="preserve">ML(B1) CD(B2)</t>
   </si>
   <si>
@@ -199,12 +214,18 @@
     <t xml:space="preserve">Ms. Shilpa</t>
   </si>
   <si>
+    <t xml:space="preserve">Ms. Vineela</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE-III C</t>
   </si>
   <si>
     <t xml:space="preserve">MAD(B1) CD(B2)</t>
   </si>
   <si>
+    <t xml:space="preserve">CD-3C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr. M Jagan</t>
   </si>
   <si>
@@ -241,6 +262,15 @@
     <t xml:space="preserve">IT - III</t>
   </si>
   <si>
+    <t xml:space="preserve">ADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM</t>
+  </si>
+  <si>
     <t xml:space="preserve">STM LAB</t>
   </si>
   <si>
@@ -259,9 +289,18 @@
     <t xml:space="preserve">CSM-III</t>
   </si>
   <si>
+    <t xml:space="preserve">AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVOPS</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAD(B1) DEVOPS(B2)</t>
   </si>
   <si>
+    <t xml:space="preserve">NLP</t>
+  </si>
+  <si>
     <t xml:space="preserve">NLP(B1)  MAD(B2)</t>
   </si>
   <si>
@@ -278,9 +317,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ms. Gowthami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAD</t>
   </si>
 </sst>
 </file>
@@ -290,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -367,11 +403,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -476,7 +507,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,39 +592,35 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,15 +628,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -696,8 +723,8 @@
   </sheetPr>
   <dimension ref="B1:N231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -864,42 +891,56 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="M10" s="13"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="K11" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -907,20 +948,26 @@
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -928,20 +975,24 @@
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -949,13 +1000,17 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
@@ -966,7 +1021,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -1032,14 +1087,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -1056,11 +1111,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -1077,11 +1132,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -1098,11 +1153,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -1119,15 +1174,15 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="I23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
@@ -1258,65 +1313,65 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="22" t="s">
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="27"/>
+      <c r="N32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1514,13 +1569,14 @@
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="51">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="B6:N6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="I10:I15"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B11:C11"/>
@@ -1583,8 +1639,8 @@
   </sheetPr>
   <dimension ref="B1:N226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1641,7 +1697,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1658,7 +1714,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1751,21 +1807,25 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1773,79 +1833,101 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="M11" s="13"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H12" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="M12" s="13"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1853,7 +1935,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -1919,14 +2001,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -1943,11 +2025,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -1964,11 +2046,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -1985,11 +2067,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -2006,11 +2088,11 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -2026,9 +2108,13 @@
       <c r="F24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -2340,7 +2426,7 @@
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -2354,8 +2440,10 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:L19"/>
@@ -2399,8 +2487,8 @@
   </sheetPr>
   <dimension ref="B1:N225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2457,7 +2545,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2474,7 +2562,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2568,81 +2656,101 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="M10" s="13"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="H12" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="H13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K13" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -2650,18 +2758,26 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="K14" s="13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -2669,7 +2785,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -2735,14 +2851,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -2759,11 +2875,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -2780,11 +2896,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -2801,11 +2917,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -2822,11 +2938,11 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -3155,7 +3271,7 @@
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -3168,6 +3284,7 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="K14:M14"/>
@@ -3214,8 +3331,8 @@
   </sheetPr>
   <dimension ref="B1:N232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3272,7 +3389,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3289,7 +3406,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3383,18 +3500,22 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -3402,55 +3523,65 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="N11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
@@ -3458,39 +3589,53 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="M13" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="N13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="E14" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="M14" s="13"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -3556,14 +3701,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -3580,11 +3725,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -3601,11 +3746,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -3622,11 +3767,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -3643,11 +3788,11 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -3664,11 +3809,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -3684,9 +3829,13 @@
       <c r="F25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -3793,69 +3942,69 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="22"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="22" t="s">
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4053,7 +4202,7 @@
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="51">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -4068,6 +4217,7 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G19:H19"/>
@@ -4122,8 +4272,8 @@
   </sheetPr>
   <dimension ref="B1:N232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4182,7 +4332,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4199,7 +4349,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4293,58 +4443,78 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="H10" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="M11" s="13"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="H12" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -4352,30 +4522,32 @@
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="H13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13"/>
@@ -4384,7 +4556,9 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -4392,7 +4566,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -4458,14 +4632,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -4482,11 +4656,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -4503,11 +4677,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -4524,11 +4698,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -4544,9 +4718,13 @@
       <c r="F23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -4687,69 +4865,69 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="22"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="22" t="s">
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="27"/>
+      <c r="N35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4947,7 +5125,7 @@
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -4958,7 +5136,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:F13"/>
@@ -5016,8 +5193,8 @@
   </sheetPr>
   <dimension ref="B1:N230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5074,7 +5251,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5091,7 +5268,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5186,13 +5363,17 @@
       <c r="C10" s="11"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H10" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -5202,22 +5383,26 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="G11" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -5225,45 +5410,55 @@
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="M12" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="H13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -5271,28 +5466,32 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -5358,14 +5557,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -5382,11 +5581,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -5403,11 +5602,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -5424,11 +5623,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -5580,48 +5779,48 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="22"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5819,7 +6018,7 @@
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -5830,6 +6029,7 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:F13"/>

--- a/3rd Year CSE, IT,CSM Timetables-1.xlsx
+++ b/3rd Year CSE, IT,CSM Timetables-1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="96">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -133,15 +133,18 @@
     <t xml:space="preserve">CD</t>
   </si>
   <si>
+    <t xml:space="preserve">LIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML(B1) CD(B2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAD</t>
   </si>
   <si>
-    <t xml:space="preserve">ML(B1) CD(B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday</t>
-  </si>
-  <si>
     <t xml:space="preserve">CD(B1) MAD(B2)</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
     <t xml:space="preserve">Mr. S. Mahesh</t>
   </si>
   <si>
+    <t xml:space="preserve">Ms. K. Thrisandhya</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLASS TIME TABLE - 2022-2023  II Semester</t>
   </si>
   <si>
@@ -223,12 +229,15 @@
     <t xml:space="preserve">MAD(B1) CD(B2)</t>
   </si>
   <si>
-    <t xml:space="preserve">CD-3C</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mr. M Jagan</t>
   </si>
   <si>
+    <t xml:space="preserve">Ms. K. Supriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. S. Saravanan</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE-III D</t>
   </si>
   <si>
@@ -247,6 +256,9 @@
     <t xml:space="preserve">Mr. M. Jagan</t>
   </si>
   <si>
+    <t xml:space="preserve">EVS(LE-202)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ms. Nalini</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t xml:space="preserve">PCC</t>
   </si>
   <si>
+    <t xml:space="preserve">IES</t>
+  </si>
+  <si>
     <t xml:space="preserve">STM</t>
   </si>
   <si>
@@ -277,6 +292,9 @@
     <t xml:space="preserve">PCC LAB</t>
   </si>
   <si>
+    <t xml:space="preserve">IESD LAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">STM Lab</t>
   </si>
   <si>
@@ -284,6 +302,12 @@
   </si>
   <si>
     <t xml:space="preserve">PCC Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. D. Bhavani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES &amp;IOT Lab</t>
   </si>
   <si>
     <t xml:space="preserve">CSM-III</t>
@@ -724,7 +748,7 @@
   <dimension ref="B1:N231"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -957,7 +981,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>20</v>
@@ -967,7 +991,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -975,14 +999,14 @@
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -992,7 +1016,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1000,13 +1024,15 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
         <v>25</v>
@@ -1021,7 +1047,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -1087,14 +1113,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -1115,7 +1141,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -1132,11 +1158,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -1153,11 +1179,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -1174,11 +1200,11 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -1194,9 +1220,13 @@
       <c r="F24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -1211,9 +1241,13 @@
       <c r="F25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -1228,9 +1262,13 @@
       <c r="F26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -1245,9 +1283,13 @@
       <c r="F27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -1640,7 +1682,7 @@
   <dimension ref="B1:N226"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1697,7 +1739,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1714,7 +1756,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1808,15 +1850,15 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>25</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="H10" s="13" t="s">
         <v>20</v>
       </c>
@@ -1825,7 +1867,7 @@
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1853,7 +1895,7 @@
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="8"/>
@@ -1864,7 +1906,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1887,11 +1929,11 @@
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
@@ -1914,11 +1956,11 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1935,7 +1977,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -2001,14 +2043,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -2029,7 +2071,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -2046,11 +2088,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -2067,11 +2109,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -2088,11 +2130,11 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -2109,11 +2151,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -2129,9 +2171,13 @@
       <c r="F25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -2146,9 +2192,13 @@
       <c r="F26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -2488,7 +2538,7 @@
   <dimension ref="B1:N225"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2545,7 +2595,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2562,7 +2612,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2656,7 +2706,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2673,9 +2723,7 @@
         <v>22</v>
       </c>
       <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="8"/>
     </row>
@@ -2685,19 +2733,21 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="H11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="J11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="8"/>
@@ -2708,14 +2758,14 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>20</v>
@@ -2731,7 +2781,7 @@
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
@@ -2758,26 +2808,26 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -2785,7 +2835,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -2851,14 +2901,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -2879,7 +2929,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -2896,11 +2946,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -2917,11 +2967,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -2938,11 +2988,11 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -2958,9 +3008,13 @@
       <c r="F24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -2975,9 +3029,13 @@
       <c r="F25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -2992,9 +3050,13 @@
       <c r="F26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -3332,7 +3394,7 @@
   <dimension ref="B1:N232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3389,7 +3451,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3406,7 +3468,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3515,7 +3577,7 @@
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -3527,12 +3589,12 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>20</v>
@@ -3558,30 +3620,30 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
@@ -3593,7 +3655,7 @@
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>19</v>
@@ -3606,18 +3668,18 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
@@ -3635,7 +3697,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -3701,14 +3763,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -3729,7 +3791,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -3746,11 +3808,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -3767,11 +3829,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -3788,11 +3850,11 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -3809,11 +3871,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -3834,7 +3896,7 @@
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
@@ -3850,9 +3912,13 @@
       <c r="F26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -3867,9 +3933,13 @@
       <c r="F27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -4273,7 +4343,7 @@
   <dimension ref="B1:N232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4332,7 +4402,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4349,7 +4419,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4442,14 +4512,14 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="E10" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
         <v>20</v>
       </c>
@@ -4459,10 +4529,10 @@
       <c r="J10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="M10" s="13"/>
       <c r="N10" s="8"/>
     </row>
@@ -4475,23 +4545,21 @@
         <v>22</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="8"/>
     </row>
@@ -4501,32 +4569,36 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>70</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="J12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="M12" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -4539,7 +4611,9 @@
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M13" s="13" t="s">
         <v>22</v>
       </c>
@@ -4547,26 +4621,32 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -4632,14 +4712,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -4660,7 +4740,7 @@
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -4677,11 +4757,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -4698,11 +4778,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -4719,11 +4799,11 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -4739,9 +4819,13 @@
       <c r="F24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -4756,9 +4840,13 @@
       <c r="F25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -4773,9 +4861,13 @@
       <c r="F26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -4790,9 +4882,13 @@
       <c r="F27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -4807,9 +4903,13 @@
       <c r="F28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -4824,9 +4924,13 @@
       <c r="F29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
+      <c r="I29" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -5125,7 +5229,7 @@
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="53">
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="B5:N5"/>
@@ -5133,13 +5237,17 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:L19"/>
@@ -5194,7 +5302,7 @@
   <dimension ref="B1:N230"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5251,7 +5359,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5268,7 +5376,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5364,10 +5472,10 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>20</v>
@@ -5387,14 +5495,14 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>20</v>
@@ -5402,7 +5510,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -5414,13 +5522,13 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
@@ -5432,25 +5540,25 @@
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>20</v>
@@ -5458,7 +5566,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -5466,18 +5574,18 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="13" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
@@ -5491,7 +5599,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
@@ -5557,14 +5665,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -5581,11 +5689,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -5602,11 +5710,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="20" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -5623,11 +5731,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -5643,9 +5751,13 @@
       <c r="F23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -5660,9 +5772,13 @@
       <c r="F24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
